--- a/US/data/BTS/TRPT/LoadFactor.xlsx
+++ b/US/data/BTS/TRPT/LoadFactor.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E207"/>
+  <dimension ref="A1:E256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3946,10 +3946,853 @@
       <c r="D207" t="n">
         <v>86.75</v>
       </c>
-      <c r="E207" t="inlineStr"/>
+      <c r="E207" t="n">
+        <v>87.38</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n"/>
+      <c r="B208" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>86.19</v>
+      </c>
+      <c r="D208" t="n">
+        <v>86.16</v>
+      </c>
+      <c r="E208" t="n">
+        <v>86.17</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n"/>
+      <c r="B209" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>80.88</v>
+      </c>
+      <c r="D209" t="n">
+        <v>80.23999999999999</v>
+      </c>
+      <c r="E209" t="n">
+        <v>80.53</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n"/>
+      <c r="B210" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>84.68000000000001</v>
+      </c>
+      <c r="D210" t="n">
+        <v>79.87</v>
+      </c>
+      <c r="E210" t="n">
+        <v>82.11</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n"/>
+      <c r="B211" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>85.06</v>
+      </c>
+      <c r="D211" t="n">
+        <v>79.88</v>
+      </c>
+      <c r="E211" t="n">
+        <v>82.39</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n"/>
+      <c r="B212" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>82.76000000000001</v>
+      </c>
+      <c r="D212" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="E212" t="n">
+        <v>81.62</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n"/>
+      <c r="B213" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>84.45999999999999</v>
+      </c>
+      <c r="D213" t="n">
+        <v>81.68000000000001</v>
+      </c>
+      <c r="E213" t="n">
+        <v>82.98</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B214" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="D214" t="n">
+        <v>80.23</v>
+      </c>
+      <c r="E214" t="n">
+        <v>79.68000000000001</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n"/>
+      <c r="B215" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>81.84</v>
+      </c>
+      <c r="D215" t="n">
+        <v>76.04000000000001</v>
+      </c>
+      <c r="E215" t="n">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n"/>
+      <c r="B216" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>86.45</v>
+      </c>
+      <c r="D216" t="n">
+        <v>81.48999999999999</v>
+      </c>
+      <c r="E216" t="n">
+        <v>83.90000000000001</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n"/>
+      <c r="B217" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>85.64</v>
+      </c>
+      <c r="D217" t="n">
+        <v>80.06</v>
+      </c>
+      <c r="E217" t="n">
+        <v>82.66</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n"/>
+      <c r="B218" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="D218" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="E218" t="n">
+        <v>85.16</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n"/>
+      <c r="B219" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="D219" t="n">
+        <v>87.58</v>
+      </c>
+      <c r="E219" t="n">
+        <v>88.37</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n"/>
+      <c r="B220" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="D220" t="n">
+        <v>87.23</v>
+      </c>
+      <c r="E220" t="n">
+        <v>88.05</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n"/>
+      <c r="B221" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>86.27</v>
+      </c>
+      <c r="D221" t="n">
+        <v>86.64</v>
+      </c>
+      <c r="E221" t="n">
+        <v>86.47</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n"/>
+      <c r="B222" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="D222" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="E222" t="n">
+        <v>81.93000000000001</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n"/>
+      <c r="B223" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>84.54000000000001</v>
+      </c>
+      <c r="D223" t="n">
+        <v>81.15000000000001</v>
+      </c>
+      <c r="E223" t="n">
+        <v>82.77</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n"/>
+      <c r="B224" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>82.03</v>
+      </c>
+      <c r="D224" t="n">
+        <v>80.94</v>
+      </c>
+      <c r="E224" t="n">
+        <v>81.48</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n"/>
+      <c r="B225" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>85.73999999999999</v>
+      </c>
+      <c r="D225" t="n">
+        <v>83.68000000000001</v>
+      </c>
+      <c r="E225" t="n">
+        <v>84.69</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n"/>
+      <c r="B226" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>85.11</v>
+      </c>
+      <c r="D226" t="n">
+        <v>82.72</v>
+      </c>
+      <c r="E226" t="n">
+        <v>83.84999999999999</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B227" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>79.56</v>
+      </c>
+      <c r="D227" t="n">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="E227" t="n">
+        <v>80.48999999999999</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n"/>
+      <c r="B228" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>80.76000000000001</v>
+      </c>
+      <c r="D228" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="E228" t="n">
+        <v>77.59</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n"/>
+      <c r="B229" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>50.06</v>
+      </c>
+      <c r="D229" t="n">
+        <v>56.95</v>
+      </c>
+      <c r="E229" t="n">
+        <v>52.97</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n"/>
+      <c r="B230" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="D230" t="n">
+        <v>28.54</v>
+      </c>
+      <c r="E230" t="n">
+        <v>16.91</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n"/>
+      <c r="B231" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="D231" t="n">
+        <v>25.06</v>
+      </c>
+      <c r="E231" t="n">
+        <v>35.21</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n"/>
+      <c r="B232" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>56.16</v>
+      </c>
+      <c r="D232" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="E232" t="n">
+        <v>51.46</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n"/>
+      <c r="B233" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D233" t="n">
+        <v>36.34</v>
+      </c>
+      <c r="E233" t="n">
+        <v>46.34</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n"/>
+      <c r="B234" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>49.41</v>
+      </c>
+      <c r="D234" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="E234" t="n">
+        <v>45.53</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n"/>
+      <c r="B235" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>57.06</v>
+      </c>
+      <c r="D235" t="n">
+        <v>33.23</v>
+      </c>
+      <c r="E235" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n"/>
+      <c r="B236" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>60.47</v>
+      </c>
+      <c r="D236" t="n">
+        <v>34.88</v>
+      </c>
+      <c r="E236" t="n">
+        <v>51.82</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n"/>
+      <c r="B237" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>54.54</v>
+      </c>
+      <c r="D237" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="E237" t="n">
+        <v>48.79</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n"/>
+      <c r="B238" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>55.63</v>
+      </c>
+      <c r="D238" t="n">
+        <v>43.48</v>
+      </c>
+      <c r="E238" t="n">
+        <v>51.23</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n"/>
+      <c r="B239" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="D239" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="E239" t="n">
+        <v>58.39</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B240" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>52.83</v>
+      </c>
+      <c r="D240" t="n">
+        <v>41.29</v>
+      </c>
+      <c r="E240" t="n">
+        <v>48.37</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n"/>
+      <c r="B241" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="D241" t="n">
+        <v>34.47</v>
+      </c>
+      <c r="E241" t="n">
+        <v>50.29</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n"/>
+      <c r="B242" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="D242" t="n">
+        <v>41.45</v>
+      </c>
+      <c r="E242" t="n">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n"/>
+      <c r="B243" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>74.78</v>
+      </c>
+      <c r="D243" t="n">
+        <v>44.22</v>
+      </c>
+      <c r="E243" t="n">
+        <v>64.64</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n"/>
+      <c r="B244" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>80.95</v>
+      </c>
+      <c r="D244" t="n">
+        <v>49.87</v>
+      </c>
+      <c r="E244" t="n">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n"/>
+      <c r="B245" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="D245" t="n">
+        <v>59.31</v>
+      </c>
+      <c r="E245" t="n">
+        <v>76.41</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n"/>
+      <c r="B246" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>87.93000000000001</v>
+      </c>
+      <c r="D246" t="n">
+        <v>66.47</v>
+      </c>
+      <c r="E246" t="n">
+        <v>80.28</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n"/>
+      <c r="B247" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>81.28</v>
+      </c>
+      <c r="D247" t="n">
+        <v>66.12</v>
+      </c>
+      <c r="E247" t="n">
+        <v>75.59</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n"/>
+      <c r="B248" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>75.64</v>
+      </c>
+      <c r="D248" t="n">
+        <v>55.18</v>
+      </c>
+      <c r="E248" t="n">
+        <v>67.86</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n"/>
+      <c r="B249" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>80.98999999999999</v>
+      </c>
+      <c r="D249" t="n">
+        <v>54.12</v>
+      </c>
+      <c r="E249" t="n">
+        <v>70.86</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n"/>
+      <c r="B250" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>81.41</v>
+      </c>
+      <c r="D250" t="n">
+        <v>63.82</v>
+      </c>
+      <c r="E250" t="n">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n"/>
+      <c r="B251" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>82.20999999999999</v>
+      </c>
+      <c r="D251" t="n">
+        <v>69.16</v>
+      </c>
+      <c r="E251" t="n">
+        <v>76.81</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n"/>
+      <c r="B252" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>77.68000000000001</v>
+      </c>
+      <c r="D252" t="n">
+        <v>56.27</v>
+      </c>
+      <c r="E252" t="n">
+        <v>69.84999999999999</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B253" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="D253" t="n">
+        <v>58.19</v>
+      </c>
+      <c r="E253" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n"/>
+      <c r="B254" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="D254" t="n">
+        <v>59.64</v>
+      </c>
+      <c r="E254" t="n">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n"/>
+      <c r="B255" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>85.67</v>
+      </c>
+      <c r="D255" t="n">
+        <v>71.19</v>
+      </c>
+      <c r="E255" t="n">
+        <v>79.73</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n"/>
+      <c r="B256" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>77.25</v>
+      </c>
+      <c r="D256" t="n">
+        <v>63.29</v>
+      </c>
+      <c r="E256" t="n">
+        <v>71.45999999999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="21">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A18"/>
     <mergeCell ref="A19:A31"/>
@@ -3966,7 +4809,11 @@
     <mergeCell ref="A162:A174"/>
     <mergeCell ref="A175:A187"/>
     <mergeCell ref="A188:A200"/>
-    <mergeCell ref="A201:A207"/>
+    <mergeCell ref="A201:A213"/>
+    <mergeCell ref="A214:A226"/>
+    <mergeCell ref="A227:A239"/>
+    <mergeCell ref="A240:A252"/>
+    <mergeCell ref="A253:A256"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
